--- a/jpcore-r4/feature/swg5-薬剤コードの割当/ValueSet-jp-medication-example-sitecomment-vs.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/ValueSet-jp-medication-example-sitecomment-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T09:32:46+00:00</t>
+    <t>2022-08-26T13:34:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-薬剤コードの割当/ValueSet-jp-medication-example-sitecomment-vs.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/ValueSet-jp-medication-example-sitecomment-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T13:34:34+00:00</t>
+    <t>2022-08-29T03:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-薬剤コードの割当/ValueSet-jp-medication-example-sitecomment-vs.xlsx
+++ b/jpcore-r4/feature/swg5-薬剤コードの割当/ValueSet-jp-medication-example-sitecomment-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:12:38+00:00</t>
+    <t>2022-08-29T07:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
